--- a/docs/Escenarios Seguro.xlsx
+++ b/docs/Escenarios Seguro.xlsx
@@ -3,8 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\6to semestre\Infraestructura de computación\Casos\Caso-3\docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15990" windowHeight="7005" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23430" windowHeight="8955" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Escenarios" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,6 @@
     <sheet name="Escenario 6" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:M21"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="78">
   <si>
     <t>1 Thread</t>
   </si>
@@ -92,6 +96,174 @@
   </si>
   <si>
     <t>80 Tasks</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>0.0 %</t>
+  </si>
+  <si>
+    <t>1.25 %</t>
+  </si>
+  <si>
+    <t>45.5</t>
+  </si>
+  <si>
+    <t>6.25 %</t>
+  </si>
+  <si>
+    <t>45.0</t>
+  </si>
+  <si>
+    <t>32.5</t>
+  </si>
+  <si>
+    <t>37.4</t>
+  </si>
+  <si>
+    <t>19.5</t>
+  </si>
+  <si>
+    <t>8.75 %</t>
+  </si>
+  <si>
+    <t>37.8</t>
+  </si>
+  <si>
+    <t>10.0 %</t>
+  </si>
+  <si>
+    <t>42.1</t>
+  </si>
+  <si>
+    <t>12.5 %</t>
+  </si>
+  <si>
+    <t>28.1</t>
+  </si>
+  <si>
+    <t>15.0 %</t>
+  </si>
+  <si>
+    <t>23.3</t>
+  </si>
+  <si>
+    <t>16.25 %</t>
+  </si>
+  <si>
+    <t>21.7</t>
+  </si>
+  <si>
+    <t>24.2</t>
+  </si>
+  <si>
+    <t>17.5 %</t>
+  </si>
+  <si>
+    <t>27.5</t>
+  </si>
+  <si>
+    <t>20.0 %</t>
+  </si>
+  <si>
+    <t>21.25 %</t>
+  </si>
+  <si>
+    <t>2.5 %</t>
+  </si>
+  <si>
+    <t>5.0 %</t>
+  </si>
+  <si>
+    <t>11.25 %</t>
+  </si>
+  <si>
+    <t>26.2</t>
+  </si>
+  <si>
+    <t>22.5 %</t>
+  </si>
+  <si>
+    <t>25.0 %</t>
+  </si>
+  <si>
+    <t>23.2</t>
+  </si>
+  <si>
+    <t>26.4</t>
+  </si>
+  <si>
+    <t>21.4</t>
+  </si>
+  <si>
+    <t>17.9</t>
+  </si>
+  <si>
+    <t>22.0</t>
+  </si>
+  <si>
+    <t>26.0</t>
+  </si>
+  <si>
+    <t>22.1</t>
+  </si>
+  <si>
+    <t>22.4</t>
+  </si>
+  <si>
+    <t>18.75 %</t>
+  </si>
+  <si>
+    <t>21.0</t>
+  </si>
+  <si>
+    <t>20.3</t>
+  </si>
+  <si>
+    <t>22.3</t>
+  </si>
+  <si>
+    <t>31.3</t>
+  </si>
+  <si>
+    <t>20.1</t>
+  </si>
+  <si>
+    <t>13.75%</t>
+  </si>
+  <si>
+    <t>19.7</t>
+  </si>
+  <si>
+    <t>16.3</t>
+  </si>
+  <si>
+    <t>19.9</t>
+  </si>
+  <si>
+    <t>16.4</t>
+  </si>
+  <si>
+    <t>20.5</t>
+  </si>
+  <si>
+    <t>19.2</t>
+  </si>
+  <si>
+    <t>23.75 %</t>
+  </si>
+  <si>
+    <t>19.0</t>
+  </si>
+  <si>
+    <t>26.25 %</t>
+  </si>
+  <si>
+    <t>22.8</t>
+  </si>
+  <si>
+    <t>21.2</t>
   </si>
 </sst>
 </file>
@@ -163,7 +335,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -175,6 +347,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -471,17 +644,17 @@
   <sheetData>
     <row r="6" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E6" s="3"/>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
       <c r="I6" s="3"/>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
     </row>
     <row r="7" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E7" s="3"/>
@@ -559,7 +732,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD992"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AB4" sqref="AB4:AD297"/>
     </sheetView>
   </sheetViews>
@@ -577,56 +750,56 @@
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13">
         <v>2</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12">
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13">
         <v>3</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12">
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13">
         <v>4</v>
       </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12">
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13">
         <v>5</v>
       </c>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12">
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13">
         <v>6</v>
       </c>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12">
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13">
         <v>7</v>
       </c>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12">
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13">
         <v>8</v>
       </c>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12">
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13">
         <v>9</v>
       </c>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="12"/>
-      <c r="AB2" s="12">
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="13"/>
+      <c r="AB2" s="13">
         <v>10</v>
       </c>
-      <c r="AC2" s="12"/>
-      <c r="AD2" s="12"/>
+      <c r="AC2" s="13"/>
+      <c r="AD2" s="13"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -29401,8 +29574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD742"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="AB4" sqref="AB4:AD149"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29422,56 +29595,56 @@
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13">
         <v>2</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12">
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13">
         <v>3</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12">
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13">
         <v>4</v>
       </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12">
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13">
         <v>5</v>
       </c>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12">
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13">
         <v>6</v>
       </c>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12">
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13">
         <v>7</v>
       </c>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12">
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13">
         <v>8</v>
       </c>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12">
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13">
         <v>9</v>
       </c>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="12"/>
-      <c r="AB2" s="12">
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="13"/>
+      <c r="AB2" s="13">
         <v>10</v>
       </c>
-      <c r="AC2" s="12"/>
-      <c r="AD2" s="12"/>
+      <c r="AC2" s="13"/>
+      <c r="AD2" s="13"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -44679,11 +44852,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD143"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="12" max="12" width="19.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C1" s="6" t="s">
@@ -44697,56 +44873,56 @@
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13">
         <v>2</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12">
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13">
         <v>3</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12">
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13">
         <v>4</v>
       </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12">
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13">
         <v>5</v>
       </c>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12">
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13">
         <v>6</v>
       </c>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12">
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13">
         <v>7</v>
       </c>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12">
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13">
         <v>8</v>
       </c>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12">
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13">
         <v>9</v>
       </c>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="12"/>
-      <c r="AB2" s="12">
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="13"/>
+      <c r="AB2" s="13">
         <v>10</v>
       </c>
-      <c r="AC2" s="12"/>
-      <c r="AD2" s="12"/>
+      <c r="AC2" s="13"/>
+      <c r="AD2" s="13"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -44859,6 +45035,33 @@
       <c r="F4" s="5">
         <v>0</v>
       </c>
+      <c r="G4">
+        <v>184</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4">
+        <v>176</v>
+      </c>
+      <c r="K4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4">
+        <v>184</v>
+      </c>
+      <c r="N4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -44879,6 +45082,33 @@
       <c r="F5" s="5">
         <v>1.2500000000000001E-2</v>
       </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O5" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -44899,6 +45129,33 @@
       <c r="F6" s="5">
         <v>1.2500000000000001E-2</v>
       </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>22</v>
+      </c>
+      <c r="O6" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -44918,6 +45175,33 @@
       </c>
       <c r="F7" s="5">
         <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>22</v>
+      </c>
+      <c r="O7" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
@@ -44939,6 +45223,33 @@
       <c r="F8" s="5">
         <v>2.5000000000000001E-2</v>
       </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+      <c r="K8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O8" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -44959,6 +45270,33 @@
       <c r="F9" s="5">
         <v>2.5000000000000001E-2</v>
       </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9">
+        <v>3</v>
+      </c>
+      <c r="K9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>22</v>
+      </c>
+      <c r="O9" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -44979,6 +45317,33 @@
       <c r="F10" s="5">
         <v>2.5000000000000001E-2</v>
       </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="K10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" t="s">
+        <v>47</v>
+      </c>
+      <c r="M10">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>22</v>
+      </c>
+      <c r="O10" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -44998,6 +45363,33 @@
       </c>
       <c r="F11" s="5">
         <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11">
+        <v>6</v>
+      </c>
+      <c r="K11" t="s">
+        <v>52</v>
+      </c>
+      <c r="L11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M11">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>22</v>
+      </c>
+      <c r="O11" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
@@ -45019,6 +45411,33 @@
       <c r="F12" s="5">
         <v>0.05</v>
       </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12" t="s">
+        <v>52</v>
+      </c>
+      <c r="L12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M12">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>22</v>
+      </c>
+      <c r="O12" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -45039,6 +45458,33 @@
       <c r="F13" s="5">
         <v>0.05</v>
       </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13" t="s">
+        <v>52</v>
+      </c>
+      <c r="L13" t="s">
+        <v>31</v>
+      </c>
+      <c r="M13">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>64</v>
+      </c>
+      <c r="O13" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -45059,6 +45505,33 @@
       <c r="F14" s="5">
         <v>0.05</v>
       </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+      <c r="K14" t="s">
+        <v>52</v>
+      </c>
+      <c r="L14" t="s">
+        <v>31</v>
+      </c>
+      <c r="M14">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s">
+        <v>64</v>
+      </c>
+      <c r="O14" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -45079,6 +45552,33 @@
       <c r="F15" s="5">
         <v>7.4999999999999997E-2</v>
       </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="H15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15">
+        <v>11</v>
+      </c>
+      <c r="K15" t="s">
+        <v>52</v>
+      </c>
+      <c r="L15" t="s">
+        <v>31</v>
+      </c>
+      <c r="M15">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>64</v>
+      </c>
+      <c r="O15" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -45099,8 +45599,35 @@
       <c r="F16" s="5">
         <v>8.7499999999999994E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="H16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" t="s">
+        <v>26</v>
+      </c>
+      <c r="J16">
+        <v>3</v>
+      </c>
+      <c r="K16" t="s">
+        <v>53</v>
+      </c>
+      <c r="L16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M16">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>64</v>
+      </c>
+      <c r="O16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>82</v>
       </c>
@@ -45119,8 +45646,35 @@
       <c r="F17" s="5">
         <v>8.7499999999999994E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" t="s">
+        <v>26</v>
+      </c>
+      <c r="J17">
+        <v>3</v>
+      </c>
+      <c r="K17" t="s">
+        <v>53</v>
+      </c>
+      <c r="L17" t="s">
+        <v>31</v>
+      </c>
+      <c r="M17">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>65</v>
+      </c>
+      <c r="O17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>81</v>
       </c>
@@ -45139,8 +45693,35 @@
       <c r="F18" s="5">
         <v>8.7499999999999994E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="H18" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18" t="s">
+        <v>26</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
+      </c>
+      <c r="K18" t="s">
+        <v>53</v>
+      </c>
+      <c r="L18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M18">
+        <v>2</v>
+      </c>
+      <c r="N18" t="s">
+        <v>65</v>
+      </c>
+      <c r="O18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>86</v>
       </c>
@@ -45159,8 +45740,35 @@
       <c r="F19" s="5">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <v>4</v>
+      </c>
+      <c r="H19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" t="s">
+        <v>26</v>
+      </c>
+      <c r="J19">
+        <v>2</v>
+      </c>
+      <c r="K19" t="s">
+        <v>53</v>
+      </c>
+      <c r="L19" t="s">
+        <v>33</v>
+      </c>
+      <c r="M19">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>65</v>
+      </c>
+      <c r="O19" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>84</v>
       </c>
@@ -45179,8 +45787,35 @@
       <c r="F20" s="5">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <v>3</v>
+      </c>
+      <c r="H20" t="s">
+        <v>27</v>
+      </c>
+      <c r="I20" t="s">
+        <v>26</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
+      </c>
+      <c r="K20" t="s">
+        <v>54</v>
+      </c>
+      <c r="L20" t="s">
+        <v>33</v>
+      </c>
+      <c r="M20">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>65</v>
+      </c>
+      <c r="O20" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>83</v>
       </c>
@@ -45199,8 +45834,35 @@
       <c r="F21" s="5">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <v>3</v>
+      </c>
+      <c r="H21" t="s">
+        <v>27</v>
+      </c>
+      <c r="I21" t="s">
+        <v>26</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
+      <c r="K21" t="s">
+        <v>54</v>
+      </c>
+      <c r="L21" t="s">
+        <v>33</v>
+      </c>
+      <c r="M21">
+        <v>2</v>
+      </c>
+      <c r="N21" t="s">
+        <v>67</v>
+      </c>
+      <c r="O21" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>82</v>
       </c>
@@ -45219,8 +45881,35 @@
       <c r="F22" s="5">
         <v>0.1125</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="H22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" t="s">
+        <v>26</v>
+      </c>
+      <c r="J22">
+        <v>3</v>
+      </c>
+      <c r="K22" t="s">
+        <v>54</v>
+      </c>
+      <c r="L22" t="s">
+        <v>33</v>
+      </c>
+      <c r="M22">
+        <v>2</v>
+      </c>
+      <c r="N22" t="s">
+        <v>67</v>
+      </c>
+      <c r="O22" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>85</v>
       </c>
@@ -45239,8 +45928,35 @@
       <c r="F23" s="5">
         <v>0.1125</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="H23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" t="s">
+        <v>26</v>
+      </c>
+      <c r="J23">
+        <v>3</v>
+      </c>
+      <c r="K23" t="s">
+        <v>54</v>
+      </c>
+      <c r="L23" t="s">
+        <v>33</v>
+      </c>
+      <c r="M23">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>67</v>
+      </c>
+      <c r="O23" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>83</v>
       </c>
@@ -45259,8 +45975,35 @@
       <c r="F24" s="5">
         <v>0.125</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <v>3</v>
+      </c>
+      <c r="H24" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" t="s">
+        <v>26</v>
+      </c>
+      <c r="J24">
+        <v>3</v>
+      </c>
+      <c r="K24" t="s">
+        <v>54</v>
+      </c>
+      <c r="L24" t="s">
+        <v>33</v>
+      </c>
+      <c r="M24">
+        <v>2</v>
+      </c>
+      <c r="N24" t="s">
+        <v>67</v>
+      </c>
+      <c r="O24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>86</v>
       </c>
@@ -45279,8 +46022,35 @@
       <c r="F25" s="5">
         <v>0.125</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" t="s">
+        <v>26</v>
+      </c>
+      <c r="J25">
+        <v>2</v>
+      </c>
+      <c r="K25" t="s">
+        <v>49</v>
+      </c>
+      <c r="L25" t="s">
+        <v>33</v>
+      </c>
+      <c r="M25">
+        <v>2</v>
+      </c>
+      <c r="N25" t="s">
+        <v>68</v>
+      </c>
+      <c r="O25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>84</v>
       </c>
@@ -45299,8 +46069,35 @@
       <c r="F26" s="5">
         <v>0.13750000000000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26">
+        <v>3</v>
+      </c>
+      <c r="H26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" t="s">
+        <v>26</v>
+      </c>
+      <c r="J26">
+        <v>3</v>
+      </c>
+      <c r="K26" t="s">
+        <v>49</v>
+      </c>
+      <c r="L26" t="s">
+        <v>33</v>
+      </c>
+      <c r="M26">
+        <v>2</v>
+      </c>
+      <c r="N26" t="s">
+        <v>68</v>
+      </c>
+      <c r="O26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>82</v>
       </c>
@@ -45319,8 +46116,35 @@
       <c r="F27" s="5">
         <v>0.13750000000000001</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="H27" t="s">
+        <v>29</v>
+      </c>
+      <c r="I27" t="s">
+        <v>26</v>
+      </c>
+      <c r="J27">
+        <v>2</v>
+      </c>
+      <c r="K27" t="s">
+        <v>49</v>
+      </c>
+      <c r="L27" t="s">
+        <v>33</v>
+      </c>
+      <c r="M27">
+        <v>2</v>
+      </c>
+      <c r="N27" t="s">
+        <v>68</v>
+      </c>
+      <c r="O27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>84</v>
       </c>
@@ -45339,8 +46163,35 @@
       <c r="F28" s="5">
         <v>0.13750000000000001</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28">
+        <v>2</v>
+      </c>
+      <c r="H28" t="s">
+        <v>29</v>
+      </c>
+      <c r="I28" t="s">
+        <v>26</v>
+      </c>
+      <c r="J28">
+        <v>3</v>
+      </c>
+      <c r="K28" t="s">
+        <v>49</v>
+      </c>
+      <c r="L28" t="s">
+        <v>48</v>
+      </c>
+      <c r="M28">
+        <v>2</v>
+      </c>
+      <c r="N28" t="s">
+        <v>68</v>
+      </c>
+      <c r="O28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>87</v>
       </c>
@@ -45359,8 +46210,35 @@
       <c r="F29" s="5">
         <v>0.13750000000000001</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29">
+        <v>2</v>
+      </c>
+      <c r="H29" t="s">
+        <v>29</v>
+      </c>
+      <c r="I29" t="s">
+        <v>26</v>
+      </c>
+      <c r="J29">
+        <v>4</v>
+      </c>
+      <c r="K29" t="s">
+        <v>55</v>
+      </c>
+      <c r="L29" t="s">
+        <v>48</v>
+      </c>
+      <c r="M29">
+        <v>2</v>
+      </c>
+      <c r="N29" t="s">
+        <v>68</v>
+      </c>
+      <c r="O29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>82</v>
       </c>
@@ -45379,8 +46257,35 @@
       <c r="F30" s="5">
         <v>0.13750000000000001</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30" t="s">
+        <v>30</v>
+      </c>
+      <c r="I30" t="s">
+        <v>31</v>
+      </c>
+      <c r="J30">
+        <v>3</v>
+      </c>
+      <c r="K30" t="s">
+        <v>55</v>
+      </c>
+      <c r="L30" t="s">
+        <v>48</v>
+      </c>
+      <c r="M30">
+        <v>2</v>
+      </c>
+      <c r="N30" t="s">
+        <v>69</v>
+      </c>
+      <c r="O30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>82</v>
       </c>
@@ -45399,8 +46304,35 @@
       <c r="F31" s="5">
         <v>0.13750000000000001</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31">
+        <v>2</v>
+      </c>
+      <c r="H31" t="s">
+        <v>30</v>
+      </c>
+      <c r="I31" t="s">
+        <v>31</v>
+      </c>
+      <c r="J31">
+        <v>2</v>
+      </c>
+      <c r="K31" t="s">
+        <v>55</v>
+      </c>
+      <c r="L31" t="s">
+        <v>48</v>
+      </c>
+      <c r="M31">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>69</v>
+      </c>
+      <c r="O31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>83</v>
       </c>
@@ -45419,8 +46351,35 @@
       <c r="F32" s="5">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32">
+        <v>2</v>
+      </c>
+      <c r="H32" t="s">
+        <v>30</v>
+      </c>
+      <c r="I32" t="s">
+        <v>31</v>
+      </c>
+      <c r="J32">
+        <v>2</v>
+      </c>
+      <c r="K32" t="s">
+        <v>55</v>
+      </c>
+      <c r="L32" t="s">
+        <v>48</v>
+      </c>
+      <c r="M32">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>69</v>
+      </c>
+      <c r="O32" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>83</v>
       </c>
@@ -45439,8 +46398,35 @@
       <c r="F33" s="5">
         <v>0.16250000000000001</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33">
+        <v>3</v>
+      </c>
+      <c r="H33" t="s">
+        <v>30</v>
+      </c>
+      <c r="I33" t="s">
+        <v>31</v>
+      </c>
+      <c r="J33">
+        <v>2</v>
+      </c>
+      <c r="K33" t="s">
+        <v>55</v>
+      </c>
+      <c r="L33" t="s">
+        <v>48</v>
+      </c>
+      <c r="M33">
+        <v>2</v>
+      </c>
+      <c r="N33" t="s">
+        <v>70</v>
+      </c>
+      <c r="O33" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>83</v>
       </c>
@@ -45459,8 +46445,35 @@
       <c r="F34" s="5">
         <v>0.16250000000000001</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34">
+        <v>3</v>
+      </c>
+      <c r="H34" t="s">
+        <v>30</v>
+      </c>
+      <c r="I34" t="s">
+        <v>31</v>
+      </c>
+      <c r="J34">
+        <v>2</v>
+      </c>
+      <c r="K34" t="s">
+        <v>56</v>
+      </c>
+      <c r="L34" t="s">
+        <v>35</v>
+      </c>
+      <c r="M34">
+        <v>2</v>
+      </c>
+      <c r="N34" t="s">
+        <v>70</v>
+      </c>
+      <c r="O34" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>84</v>
       </c>
@@ -45479,8 +46492,35 @@
       <c r="F35" s="5">
         <v>0.16250000000000001</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35">
+        <v>3</v>
+      </c>
+      <c r="H35" t="s">
+        <v>32</v>
+      </c>
+      <c r="I35" t="s">
+        <v>31</v>
+      </c>
+      <c r="J35">
+        <v>3</v>
+      </c>
+      <c r="K35" t="s">
+        <v>56</v>
+      </c>
+      <c r="L35" t="s">
+        <v>35</v>
+      </c>
+      <c r="M35">
+        <v>2</v>
+      </c>
+      <c r="N35" t="s">
+        <v>70</v>
+      </c>
+      <c r="O35" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>82</v>
       </c>
@@ -45499,8 +46539,35 @@
       <c r="F36" s="5">
         <v>0.16250000000000001</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36">
+        <v>2</v>
+      </c>
+      <c r="H36" t="s">
+        <v>32</v>
+      </c>
+      <c r="I36" t="s">
+        <v>31</v>
+      </c>
+      <c r="J36">
+        <v>2</v>
+      </c>
+      <c r="K36" t="s">
+        <v>56</v>
+      </c>
+      <c r="L36" t="s">
+        <v>35</v>
+      </c>
+      <c r="M36">
+        <v>2</v>
+      </c>
+      <c r="N36" t="s">
+        <v>70</v>
+      </c>
+      <c r="O36" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>82</v>
       </c>
@@ -45519,8 +46586,35 @@
       <c r="F37" s="5">
         <v>0.17499999999999999</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37">
+        <v>3</v>
+      </c>
+      <c r="H37" t="s">
+        <v>32</v>
+      </c>
+      <c r="I37" t="s">
+        <v>33</v>
+      </c>
+      <c r="J37">
+        <v>2</v>
+      </c>
+      <c r="K37" t="s">
+        <v>56</v>
+      </c>
+      <c r="L37" t="s">
+        <v>35</v>
+      </c>
+      <c r="M37">
+        <v>2</v>
+      </c>
+      <c r="N37" t="s">
+        <v>71</v>
+      </c>
+      <c r="O37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>81</v>
       </c>
@@ -45539,8 +46633,35 @@
       <c r="F38" s="5">
         <v>0.1875</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38">
+        <v>3</v>
+      </c>
+      <c r="H38" t="s">
+        <v>32</v>
+      </c>
+      <c r="I38" t="s">
+        <v>33</v>
+      </c>
+      <c r="J38">
+        <v>8</v>
+      </c>
+      <c r="K38" t="s">
+        <v>56</v>
+      </c>
+      <c r="L38" t="s">
+        <v>35</v>
+      </c>
+      <c r="M38">
+        <v>2</v>
+      </c>
+      <c r="N38" t="s">
+        <v>71</v>
+      </c>
+      <c r="O38" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>85</v>
       </c>
@@ -45559,8 +46680,35 @@
       <c r="F39" s="5">
         <v>0.1875</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39">
+        <v>3</v>
+      </c>
+      <c r="H39" t="s">
+        <v>34</v>
+      </c>
+      <c r="I39" t="s">
+        <v>35</v>
+      </c>
+      <c r="J39">
+        <v>2</v>
+      </c>
+      <c r="K39" t="s">
+        <v>57</v>
+      </c>
+      <c r="L39" t="s">
+        <v>35</v>
+      </c>
+      <c r="M39">
+        <v>3</v>
+      </c>
+      <c r="N39" t="s">
+        <v>71</v>
+      </c>
+      <c r="O39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>83</v>
       </c>
@@ -45579,8 +46727,35 @@
       <c r="F40" s="5">
         <v>0.1875</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G40">
+        <v>2</v>
+      </c>
+      <c r="H40" t="s">
+        <v>34</v>
+      </c>
+      <c r="I40" t="s">
+        <v>35</v>
+      </c>
+      <c r="J40">
+        <v>3</v>
+      </c>
+      <c r="K40" t="s">
+        <v>57</v>
+      </c>
+      <c r="L40" t="s">
+        <v>35</v>
+      </c>
+      <c r="M40">
+        <v>8</v>
+      </c>
+      <c r="N40" t="s">
+        <v>71</v>
+      </c>
+      <c r="O40" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>83</v>
       </c>
@@ -45599,8 +46774,35 @@
       <c r="F41" s="5">
         <v>0.21249999999999999</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G41">
+        <v>3</v>
+      </c>
+      <c r="H41" t="s">
+        <v>34</v>
+      </c>
+      <c r="I41" t="s">
+        <v>35</v>
+      </c>
+      <c r="J41">
+        <v>2</v>
+      </c>
+      <c r="K41" t="s">
+        <v>57</v>
+      </c>
+      <c r="L41" s="11">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="M41">
+        <v>2</v>
+      </c>
+      <c r="N41" t="s">
+        <v>71</v>
+      </c>
+      <c r="O41" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>83</v>
       </c>
@@ -45619,8 +46821,35 @@
       <c r="F42" s="5">
         <v>0.21249999999999999</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G42">
+        <v>2</v>
+      </c>
+      <c r="H42" t="s">
+        <v>34</v>
+      </c>
+      <c r="I42" t="s">
+        <v>35</v>
+      </c>
+      <c r="J42">
+        <v>2</v>
+      </c>
+      <c r="K42" t="s">
+        <v>57</v>
+      </c>
+      <c r="L42" s="11">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="M42">
+        <v>6</v>
+      </c>
+      <c r="N42" t="s">
+        <v>72</v>
+      </c>
+      <c r="O42" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>84</v>
       </c>
@@ -45639,8 +46868,35 @@
       <c r="F43" s="5">
         <v>0.22500000000000001</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G43">
+        <v>9</v>
+      </c>
+      <c r="H43" t="s">
+        <v>34</v>
+      </c>
+      <c r="I43" t="s">
+        <v>35</v>
+      </c>
+      <c r="J43">
+        <v>2</v>
+      </c>
+      <c r="K43" t="s">
+        <v>57</v>
+      </c>
+      <c r="L43" s="11">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="M43">
+        <v>2</v>
+      </c>
+      <c r="N43" t="s">
+        <v>72</v>
+      </c>
+      <c r="O43" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>83</v>
       </c>
@@ -45659,8 +46915,35 @@
       <c r="F44" s="5">
         <v>0.22500000000000001</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G44">
+        <v>2</v>
+      </c>
+      <c r="H44" t="s">
+        <v>36</v>
+      </c>
+      <c r="I44" t="s">
+        <v>37</v>
+      </c>
+      <c r="J44">
+        <v>2</v>
+      </c>
+      <c r="K44" t="s">
+        <v>58</v>
+      </c>
+      <c r="L44" s="11">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="M44">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>72</v>
+      </c>
+      <c r="O44" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>84</v>
       </c>
@@ -45679,8 +46962,35 @@
       <c r="F45" s="5">
         <v>0.23749999999999999</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G45">
+        <v>3</v>
+      </c>
+      <c r="H45" t="s">
+        <v>36</v>
+      </c>
+      <c r="I45" t="s">
+        <v>37</v>
+      </c>
+      <c r="J45">
+        <v>2</v>
+      </c>
+      <c r="K45" t="s">
+        <v>58</v>
+      </c>
+      <c r="L45" t="s">
+        <v>39</v>
+      </c>
+      <c r="M45">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s">
+        <v>72</v>
+      </c>
+      <c r="O45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>84</v>
       </c>
@@ -45699,8 +47009,35 @@
       <c r="F46" s="5">
         <v>0.23749999999999999</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G46">
+        <v>2</v>
+      </c>
+      <c r="H46" t="s">
+        <v>36</v>
+      </c>
+      <c r="I46" t="s">
+        <v>37</v>
+      </c>
+      <c r="J46">
+        <v>5</v>
+      </c>
+      <c r="K46" t="s">
+        <v>58</v>
+      </c>
+      <c r="L46" t="s">
+        <v>39</v>
+      </c>
+      <c r="M46">
+        <v>2</v>
+      </c>
+      <c r="N46" t="s">
+        <v>72</v>
+      </c>
+      <c r="O46" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>83</v>
       </c>
@@ -45719,8 +47056,35 @@
       <c r="F47" s="5">
         <v>0.27500000000000002</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G47">
+        <v>2</v>
+      </c>
+      <c r="H47" t="s">
+        <v>36</v>
+      </c>
+      <c r="I47" t="s">
+        <v>37</v>
+      </c>
+      <c r="J47">
+        <v>3</v>
+      </c>
+      <c r="K47" t="s">
+        <v>59</v>
+      </c>
+      <c r="L47" t="s">
+        <v>39</v>
+      </c>
+      <c r="M47">
+        <v>7</v>
+      </c>
+      <c r="N47" t="s">
+        <v>74</v>
+      </c>
+      <c r="O47" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>84</v>
       </c>
@@ -45739,8 +47103,35 @@
       <c r="F48" s="5">
         <v>0.27500000000000002</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G48">
+        <v>2</v>
+      </c>
+      <c r="H48" t="s">
+        <v>36</v>
+      </c>
+      <c r="I48" t="s">
+        <v>37</v>
+      </c>
+      <c r="J48">
+        <v>3</v>
+      </c>
+      <c r="K48" t="s">
+        <v>59</v>
+      </c>
+      <c r="L48" t="s">
+        <v>42</v>
+      </c>
+      <c r="M48">
+        <v>2</v>
+      </c>
+      <c r="N48" t="s">
+        <v>74</v>
+      </c>
+      <c r="O48" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>91</v>
       </c>
@@ -45759,8 +47150,35 @@
       <c r="F49" s="5">
         <v>0.27500000000000002</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G49">
+        <v>2</v>
+      </c>
+      <c r="H49" t="s">
+        <v>38</v>
+      </c>
+      <c r="I49" t="s">
+        <v>37</v>
+      </c>
+      <c r="J49">
+        <v>4</v>
+      </c>
+      <c r="K49" t="s">
+        <v>59</v>
+      </c>
+      <c r="L49" t="s">
+        <v>42</v>
+      </c>
+      <c r="M49">
+        <v>2</v>
+      </c>
+      <c r="N49" t="s">
+        <v>74</v>
+      </c>
+      <c r="O49" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>84</v>
       </c>
@@ -45779,8 +47197,35 @@
       <c r="F50" s="5">
         <v>0.27500000000000002</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G50">
+        <v>2</v>
+      </c>
+      <c r="H50" t="s">
+        <v>38</v>
+      </c>
+      <c r="I50" t="s">
+        <v>37</v>
+      </c>
+      <c r="J50">
+        <v>2</v>
+      </c>
+      <c r="K50" t="s">
+        <v>59</v>
+      </c>
+      <c r="L50" t="s">
+        <v>42</v>
+      </c>
+      <c r="M50">
+        <v>2</v>
+      </c>
+      <c r="N50" t="s">
+        <v>74</v>
+      </c>
+      <c r="O50" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>81</v>
       </c>
@@ -45799,8 +47244,35 @@
       <c r="F51" s="5">
         <v>0.27500000000000002</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G51">
+        <v>3</v>
+      </c>
+      <c r="H51" t="s">
+        <v>38</v>
+      </c>
+      <c r="I51" t="s">
+        <v>37</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51" t="s">
+        <v>40</v>
+      </c>
+      <c r="L51" t="s">
+        <v>42</v>
+      </c>
+      <c r="M51">
+        <v>2</v>
+      </c>
+      <c r="N51" t="s">
+        <v>74</v>
+      </c>
+      <c r="O51" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>84</v>
       </c>
@@ -45819,8 +47291,35 @@
       <c r="F52" s="5">
         <v>0.27500000000000002</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G52">
+        <v>4</v>
+      </c>
+      <c r="H52" t="s">
+        <v>38</v>
+      </c>
+      <c r="I52" t="s">
+        <v>39</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52" t="s">
+        <v>40</v>
+      </c>
+      <c r="L52" t="s">
+        <v>60</v>
+      </c>
+      <c r="M52">
+        <v>3</v>
+      </c>
+      <c r="N52" t="s">
+        <v>74</v>
+      </c>
+      <c r="O52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>84</v>
       </c>
@@ -45839,8 +47338,35 @@
       <c r="F53" s="5">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G53">
+        <v>2</v>
+      </c>
+      <c r="H53" t="s">
+        <v>40</v>
+      </c>
+      <c r="I53" t="s">
+        <v>39</v>
+      </c>
+      <c r="J53">
+        <v>6</v>
+      </c>
+      <c r="K53" t="s">
+        <v>40</v>
+      </c>
+      <c r="L53" t="s">
+        <v>60</v>
+      </c>
+      <c r="M53">
+        <v>2</v>
+      </c>
+      <c r="N53" t="s">
+        <v>49</v>
+      </c>
+      <c r="O53" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>82</v>
       </c>
@@ -45859,8 +47385,35 @@
       <c r="F54" s="5">
         <v>0.3125</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G54">
+        <v>2</v>
+      </c>
+      <c r="H54" t="s">
+        <v>40</v>
+      </c>
+      <c r="I54" t="s">
+        <v>39</v>
+      </c>
+      <c r="J54">
+        <v>2</v>
+      </c>
+      <c r="K54" t="s">
+        <v>40</v>
+      </c>
+      <c r="L54" t="s">
+        <v>60</v>
+      </c>
+      <c r="M54">
+        <v>8</v>
+      </c>
+      <c r="N54" t="s">
+        <v>49</v>
+      </c>
+      <c r="O54" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>83</v>
       </c>
@@ -45879,8 +47432,35 @@
       <c r="F55" s="5">
         <v>0.3125</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G55">
+        <v>2</v>
+      </c>
+      <c r="H55" t="s">
+        <v>40</v>
+      </c>
+      <c r="I55" t="s">
+        <v>39</v>
+      </c>
+      <c r="J55">
+        <v>2</v>
+      </c>
+      <c r="K55" t="s">
+        <v>61</v>
+      </c>
+      <c r="L55" t="s">
+        <v>60</v>
+      </c>
+      <c r="M55">
+        <v>7</v>
+      </c>
+      <c r="N55" t="s">
+        <v>49</v>
+      </c>
+      <c r="O55" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>82</v>
       </c>
@@ -45899,8 +47479,35 @@
       <c r="F56" s="5">
         <v>0.3125</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G56">
+        <v>2</v>
+      </c>
+      <c r="H56" t="s">
+        <v>40</v>
+      </c>
+      <c r="I56" t="s">
+        <v>39</v>
+      </c>
+      <c r="J56">
+        <v>2</v>
+      </c>
+      <c r="K56" t="s">
+        <v>61</v>
+      </c>
+      <c r="L56" t="s">
+        <v>60</v>
+      </c>
+      <c r="M56">
+        <v>2</v>
+      </c>
+      <c r="N56" t="s">
+        <v>49</v>
+      </c>
+      <c r="O56" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>81</v>
       </c>
@@ -45919,8 +47526,35 @@
       <c r="F57" s="5">
         <v>0.3125</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G57">
+        <v>2</v>
+      </c>
+      <c r="H57" t="s">
+        <v>40</v>
+      </c>
+      <c r="I57" t="s">
+        <v>39</v>
+      </c>
+      <c r="J57">
+        <v>2</v>
+      </c>
+      <c r="K57" t="s">
+        <v>61</v>
+      </c>
+      <c r="L57" t="s">
+        <v>60</v>
+      </c>
+      <c r="M57">
+        <v>3</v>
+      </c>
+      <c r="N57" t="s">
+        <v>76</v>
+      </c>
+      <c r="O57" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>83</v>
       </c>
@@ -45930,8 +47564,35 @@
       <c r="C58" s="5">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G58">
+        <v>18</v>
+      </c>
+      <c r="H58" t="s">
+        <v>41</v>
+      </c>
+      <c r="I58" t="s">
+        <v>42</v>
+      </c>
+      <c r="J58">
+        <v>5</v>
+      </c>
+      <c r="K58" t="s">
+        <v>62</v>
+      </c>
+      <c r="L58" t="s">
+        <v>45</v>
+      </c>
+      <c r="M58">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>76</v>
+      </c>
+      <c r="O58" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>87</v>
       </c>
@@ -45941,8 +47602,35 @@
       <c r="C59" s="5">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G59">
+        <v>2</v>
+      </c>
+      <c r="H59" t="s">
+        <v>41</v>
+      </c>
+      <c r="I59" t="s">
+        <v>42</v>
+      </c>
+      <c r="J59">
+        <v>2</v>
+      </c>
+      <c r="K59" t="s">
+        <v>62</v>
+      </c>
+      <c r="L59" t="s">
+        <v>50</v>
+      </c>
+      <c r="M59">
+        <v>2</v>
+      </c>
+      <c r="N59" t="s">
+        <v>76</v>
+      </c>
+      <c r="O59" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>83</v>
       </c>
@@ -45952,8 +47640,35 @@
       <c r="C60" s="5">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G60">
+        <v>3</v>
+      </c>
+      <c r="H60" t="s">
+        <v>41</v>
+      </c>
+      <c r="I60" t="s">
+        <v>42</v>
+      </c>
+      <c r="J60">
+        <v>2</v>
+      </c>
+      <c r="K60" t="s">
+        <v>62</v>
+      </c>
+      <c r="L60" t="s">
+        <v>51</v>
+      </c>
+      <c r="M60">
+        <v>2</v>
+      </c>
+      <c r="N60" t="s">
+        <v>76</v>
+      </c>
+      <c r="O60" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>83</v>
       </c>
@@ -45963,8 +47678,35 @@
       <c r="C61" s="5">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G61">
+        <v>2</v>
+      </c>
+      <c r="H61" t="s">
+        <v>41</v>
+      </c>
+      <c r="I61" t="s">
+        <v>42</v>
+      </c>
+      <c r="J61">
+        <v>2</v>
+      </c>
+      <c r="K61" t="s">
+        <v>63</v>
+      </c>
+      <c r="L61" t="s">
+        <v>51</v>
+      </c>
+      <c r="M61">
+        <v>8</v>
+      </c>
+      <c r="N61" t="s">
+        <v>77</v>
+      </c>
+      <c r="O61" s="11">
+        <v>0.27500000000000002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>83</v>
       </c>
@@ -45974,8 +47716,26 @@
       <c r="C62" s="5">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G62">
+        <v>3</v>
+      </c>
+      <c r="H62" t="s">
+        <v>43</v>
+      </c>
+      <c r="I62" t="s">
+        <v>44</v>
+      </c>
+      <c r="J62">
+        <v>2</v>
+      </c>
+      <c r="K62" t="s">
+        <v>63</v>
+      </c>
+      <c r="L62" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>82</v>
       </c>
@@ -45985,56 +47745,92 @@
       <c r="C63" s="5">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G63">
+        <v>2</v>
+      </c>
+      <c r="H63" t="s">
+        <v>43</v>
+      </c>
+      <c r="I63" t="s">
+        <v>44</v>
+      </c>
+      <c r="J63">
+        <v>2</v>
+      </c>
+      <c r="K63" t="s">
+        <v>63</v>
+      </c>
+      <c r="L63" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C64" s="5"/>
-    </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="G64">
+        <v>3</v>
+      </c>
+      <c r="H64" t="s">
+        <v>43</v>
+      </c>
+      <c r="I64" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="65" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C65" s="5"/>
-    </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="G65">
+        <v>2</v>
+      </c>
+      <c r="H65" t="s">
+        <v>43</v>
+      </c>
+      <c r="I65" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="66" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C66" s="5"/>
     </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C67" s="5"/>
     </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C68" s="5"/>
     </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C69" s="5"/>
     </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C70" s="5"/>
     </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C71" s="5"/>
     </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C72" s="5"/>
     </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C73" s="5"/>
     </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C74" s="5"/>
     </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C75" s="5"/>
     </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C76" s="5"/>
     </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C77" s="5"/>
     </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C78" s="5"/>
     </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C79" s="5"/>
     </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C80" s="5"/>
     </row>
     <row r="81" spans="3:3" x14ac:dyDescent="0.25">
@@ -46265,56 +48061,56 @@
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13">
         <v>2</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12">
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13">
         <v>3</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12">
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13">
         <v>4</v>
       </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12">
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13">
         <v>5</v>
       </c>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12">
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13">
         <v>6</v>
       </c>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12">
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13">
         <v>7</v>
       </c>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12">
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13">
         <v>8</v>
       </c>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12">
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13">
         <v>9</v>
       </c>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="12"/>
-      <c r="AB2" s="12">
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="13"/>
+      <c r="AB2" s="13">
         <v>10</v>
       </c>
-      <c r="AC2" s="12"/>
-      <c r="AD2" s="12"/>
+      <c r="AC2" s="13"/>
+      <c r="AD2" s="13"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -49631,56 +51427,56 @@
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13">
         <v>2</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12">
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13">
         <v>3</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12">
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13">
         <v>4</v>
       </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12">
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13">
         <v>5</v>
       </c>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12">
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13">
         <v>6</v>
       </c>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12">
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13">
         <v>7</v>
       </c>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12">
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13">
         <v>8</v>
       </c>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12">
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13">
         <v>9</v>
       </c>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="12"/>
-      <c r="AB2" s="12">
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="13"/>
+      <c r="AB2" s="13">
         <v>10</v>
       </c>
-      <c r="AC2" s="12"/>
-      <c r="AD2" s="12"/>
+      <c r="AC2" s="13"/>
+      <c r="AD2" s="13"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -51386,56 +53182,56 @@
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13">
         <v>2</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12">
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13">
         <v>3</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12">
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13">
         <v>4</v>
       </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12">
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13">
         <v>5</v>
       </c>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12">
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13">
         <v>6</v>
       </c>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12">
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13">
         <v>7</v>
       </c>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12">
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13">
         <v>8</v>
       </c>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12">
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13">
         <v>9</v>
       </c>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="12"/>
-      <c r="AB2" s="12">
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="13"/>
+      <c r="AB2" s="13">
         <v>10</v>
       </c>
-      <c r="AC2" s="12"/>
-      <c r="AD2" s="12"/>
+      <c r="AC2" s="13"/>
+      <c r="AD2" s="13"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
